--- a/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>944.08078117248954</v>
+        <v>944.08077105744803</v>
       </c>
       <c r="C2">
-        <v>784.68221713555477</v>
+        <v>784.68220717664246</v>
       </c>
       <c r="D2">
-        <v>522.85987347868513</v>
+        <v>522.85987065694053</v>
       </c>
       <c r="E2">
-        <v>670.9255753149672</v>
+        <v>670.92557187278237</v>
       </c>
       <c r="F2">
-        <v>719.69678399746556</v>
+        <v>719.69677792151379</v>
       </c>
       <c r="G2">
-        <v>738.22374649734741</v>
+        <v>738.2237421458741</v>
       </c>
       <c r="H2">
-        <v>961.6635205386001</v>
+        <v>961.66351110929645</v>
       </c>
       <c r="I2">
-        <v>577.95798485716602</v>
+        <v>577.95798294609381</v>
       </c>
       <c r="J2">
-        <v>1075.7189378472451</v>
+        <v>1075.7189271052559</v>
       </c>
       <c r="K2">
-        <v>708.33924739771635</v>
+        <v>708.33924265154747</v>
       </c>
       <c r="L2">
-        <v>482.06486461737541</v>
+        <v>482.06486084221888</v>
       </c>
       <c r="M2">
-        <v>729.1864426670918</v>
+        <v>729.18643933657677</v>
       </c>
       <c r="N2">
-        <v>636.12722890189036</v>
+        <v>636.12722408291711</v>
       </c>
       <c r="O2">
-        <v>360.51385009612665</v>
+        <v>360.51384934303042</v>
       </c>
       <c r="P2">
-        <v>946.63924628826442</v>
+        <v>946.63923647977197</v>
       </c>
       <c r="Q2">
-        <v>464.62507754132713</v>
+        <v>464.62507585767349</v>
       </c>
       <c r="R2">
-        <v>813.75693769858901</v>
+        <v>813.75693527432168</v>
       </c>
       <c r="S2">
-        <v>1095.8777466055574</v>
+        <v>1095.8777413019691</v>
       </c>
       <c r="T2">
-        <v>707.12147198043078</v>
+        <v>707.12147066572982</v>
       </c>
       <c r="U2">
-        <v>430.61423198169456</v>
+        <v>430.61422997551159</v>
       </c>
       <c r="V2">
-        <v>706.57216621690111</v>
+        <v>706.57216417865845</v>
       </c>
       <c r="W2">
-        <v>533.97140211845579</v>
+        <v>533.97139881053363</v>
       </c>
       <c r="X2">
-        <v>392.42202176193587</v>
+        <v>392.42201940586511</v>
       </c>
       <c r="Y2">
-        <v>633.30430867393204</v>
+        <v>633.30430641444468</v>
       </c>
       <c r="Z2">
-        <v>273.31936521038307</v>
+        <v>273.31936476055881</v>
       </c>
       <c r="AA2">
-        <v>1078.9006061100904</v>
+        <v>1078.9005948294518</v>
       </c>
       <c r="AB2">
-        <v>469.85282406640471</v>
+        <v>469.85281876811092</v>
       </c>
       <c r="AC2">
-        <v>406.53074170014503</v>
+        <v>406.53073920824346</v>
       </c>
       <c r="AD2">
-        <v>366.97656175460298</v>
+        <v>366.97655946507621</v>
       </c>
       <c r="AE2">
-        <v>446.47720789706864</v>
+        <v>446.4772047224057</v>
       </c>
       <c r="AF2">
-        <v>838.91208182196033</v>
+        <v>838.91207537448088</v>
       </c>
       <c r="AG2">
-        <v>524.33380175173477</v>
+        <v>524.33379635143945</v>
       </c>
       <c r="AH2">
-        <v>502.51357648586674</v>
+        <v>502.51357498077869</v>
       </c>
       <c r="AI2">
-        <v>908.82020067157839</v>
+        <v>908.82019200643788</v>
       </c>
       <c r="AJ2">
-        <v>931.7610078272628</v>
+        <v>931.76100237315779</v>
       </c>
       <c r="AK2">
-        <v>409.33315563649944</v>
+        <v>409.33315287221586</v>
       </c>
       <c r="AL2">
-        <v>655.43778191607646</v>
+        <v>655.43778052445293</v>
       </c>
       <c r="AM2">
-        <v>776.58446312997842</v>
+        <v>776.58445900971594</v>
       </c>
       <c r="AN2">
-        <v>367.55330479534206</v>
+        <v>367.55330419549136</v>
       </c>
       <c r="AO2">
-        <v>690.86988419443162</v>
+        <v>690.86988063623187</v>
       </c>
       <c r="AP2">
-        <v>467.42347240090385</v>
+        <v>467.42347096340819</v>
       </c>
       <c r="AQ2">
-        <v>588.96701374254746</v>
+        <v>588.96701264845149</v>
       </c>
       <c r="AR2">
-        <v>692.78855250233983</v>
+        <v>692.78854835977074</v>
       </c>
       <c r="AS2">
-        <v>625.01665975296919</v>
+        <v>625.01665790182426</v>
       </c>
       <c r="AT2">
-        <v>313.57459394212918</v>
+        <v>313.57459330511182</v>
       </c>
       <c r="AU2">
-        <v>687.51559594226217</v>
+        <v>687.51559370092855</v>
       </c>
       <c r="AV2">
-        <v>385.81347182447433</v>
+        <v>385.81347007171803</v>
       </c>
       <c r="AW2">
-        <v>305.69250326969114</v>
+        <v>305.69250193518729</v>
       </c>
       <c r="AX2">
-        <v>450.92865311453198</v>
+        <v>450.92865191490222</v>
       </c>
       <c r="AY2">
-        <v>291.1591452933356</v>
+        <v>291.15914473414227</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1256.6242850946503</v>
+        <v>1256.6242649662242</v>
       </c>
       <c r="C3">
-        <v>576.8700669257363</v>
+        <v>576.87006153945049</v>
       </c>
       <c r="D3">
-        <v>528.38985073785295</v>
+        <v>528.38984743350204</v>
       </c>
       <c r="E3">
-        <v>1496.1471187305449</v>
+        <v>1496.1471085605228</v>
       </c>
       <c r="F3">
-        <v>357.75259016904647</v>
+        <v>357.75258848403701</v>
       </c>
       <c r="G3">
-        <v>872.0322725272091</v>
+        <v>872.03226773837787</v>
       </c>
       <c r="H3">
-        <v>1072.7813803979839</v>
+        <v>1072.7813701737575</v>
       </c>
       <c r="I3">
-        <v>589.6497493339499</v>
+        <v>589.64974802873496</v>
       </c>
       <c r="J3">
-        <v>1006.9601052355647</v>
+        <v>1006.9600945011888</v>
       </c>
       <c r="K3">
-        <v>829.63542796963793</v>
+        <v>829.63542407173816</v>
       </c>
       <c r="L3">
-        <v>759.26891762922571</v>
+        <v>759.26891209674284</v>
       </c>
       <c r="M3">
-        <v>744.77181182541744</v>
+        <v>744.80368987636996</v>
       </c>
       <c r="N3">
-        <v>770.17302558382835</v>
+        <v>770.17302114195684</v>
       </c>
       <c r="O3">
-        <v>444.87391105662761</v>
+        <v>444.87390981478114</v>
       </c>
       <c r="P3">
-        <v>1056.56065846467</v>
+        <v>1056.5606488429326</v>
       </c>
       <c r="Q3">
-        <v>547.09609263446282</v>
+        <v>547.09609018879996</v>
       </c>
       <c r="R3">
-        <v>436.76752914254621</v>
+        <v>436.76752806676581</v>
       </c>
       <c r="S3">
-        <v>795.74921583659318</v>
+        <v>795.74921194859792</v>
       </c>
       <c r="T3">
-        <v>697.7254282565068</v>
+        <v>697.72542654063807</v>
       </c>
       <c r="U3">
-        <v>545.17480982584766</v>
+        <v>545.17480799150974</v>
       </c>
       <c r="V3">
-        <v>756.4346694811212</v>
+        <v>756.4346663678815</v>
       </c>
       <c r="W3">
-        <v>540.7718363627464</v>
+        <v>540.77183258068828</v>
       </c>
       <c r="X3">
-        <v>517.10275689612502</v>
+        <v>517.10275304978802</v>
       </c>
       <c r="Y3">
-        <v>584.78716959042004</v>
+        <v>584.78716744921235</v>
       </c>
       <c r="Z3">
-        <v>341.10286714437922</v>
+        <v>341.10286656417946</v>
       </c>
       <c r="AA3">
-        <v>855.5239194223019</v>
+        <v>855.5239078258146</v>
       </c>
       <c r="AB3">
-        <v>507.43476326143224</v>
+        <v>507.4347581591058</v>
       </c>
       <c r="AC3">
-        <v>405.25561980401295</v>
+        <v>405.25561821916807</v>
       </c>
       <c r="AD3">
-        <v>659.23790773121323</v>
+        <v>659.23790269576659</v>
       </c>
       <c r="AE3">
-        <v>339.83064985712821</v>
+        <v>339.83064787253437</v>
       </c>
       <c r="AF3">
-        <v>631.91863828858504</v>
+        <v>631.91863338142912</v>
       </c>
       <c r="AG3">
-        <v>604.06654137413796</v>
+        <v>604.06653561821895</v>
       </c>
       <c r="AH3">
-        <v>583.201180084557</v>
+        <v>583.20117898637341</v>
       </c>
       <c r="AI3">
-        <v>671.59260301475547</v>
+        <v>671.59259722220031</v>
       </c>
       <c r="AJ3">
-        <v>928.3480274147438</v>
+        <v>928.3480228760277</v>
       </c>
       <c r="AK3">
-        <v>460.48233875337934</v>
+        <v>460.48233612140865</v>
       </c>
       <c r="AL3">
-        <v>546.22408830881795</v>
+        <v>546.22408645265307</v>
       </c>
       <c r="AM3">
-        <v>853.00131888929764</v>
+        <v>853.00131378641288</v>
       </c>
       <c r="AN3">
-        <v>359.55529454934361</v>
+        <v>359.55529361567272</v>
       </c>
       <c r="AO3">
-        <v>797.14944154860598</v>
+        <v>797.14943639943965</v>
       </c>
       <c r="AP3">
-        <v>474.72338392728221</v>
+        <v>474.72338231493057</v>
       </c>
       <c r="AQ3">
-        <v>401.547013240475</v>
+        <v>401.54701224901493</v>
       </c>
       <c r="AR3">
-        <v>663.27127275463147</v>
+        <v>663.27127050122851</v>
       </c>
       <c r="AS3">
-        <v>529.74789817106182</v>
+        <v>529.74789688059047</v>
       </c>
       <c r="AT3">
-        <v>311.76358250451312</v>
+        <v>311.76358181466071</v>
       </c>
       <c r="AU3">
-        <v>695.90115093073621</v>
+        <v>695.90114926389253</v>
       </c>
       <c r="AV3">
-        <v>382.88118325567444</v>
+        <v>382.88118148894654</v>
       </c>
       <c r="AW3">
-        <v>354.21959915837982</v>
+        <v>354.2195978265309</v>
       </c>
       <c r="AX3">
-        <v>598.85236068167353</v>
+        <v>598.85235890851754</v>
       </c>
       <c r="AY3">
-        <v>399.2711561894277</v>
+        <v>399.27115488002937</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>944.08077105744803</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>784.68220717664246</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>522.85987065694053</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>670.92557187278237</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>719.69677792151379</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>738.2237421458741</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>961.66351110929645</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>577.95798294609381</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1075.7189271052559</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>708.33924265154747</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>482.06486084221888</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>729.18643933657677</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>636.12722408291711</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>360.51384934303042</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>946.63923647977197</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>464.62507585767349</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>813.75693527432168</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1095.8777413019691</v>
@@ -588,55 +477,55 @@
         <v>273.31936476055881</v>
       </c>
       <c r="AA2">
-        <v>1078.9005948294518</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>469.85281876811092</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>406.53073920824346</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>366.97655946507621</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>446.4772047224057</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>838.91207537448088</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>524.33379635143945</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>502.51357498077869</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>908.82019200643788</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>931.76100237315779</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>409.33315287221586</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>655.43778052445293</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>776.58445900971594</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>367.55330419549136</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>690.86988063623187</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>467.42347096340819</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>588.96701264845149</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>692.78854835977074</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1256.6242649662242</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>576.87006153945049</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>528.38984743350204</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1496.1471085605228</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>357.75258848403701</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>872.03226773837787</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1072.7813701737575</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>589.64974802873496</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1006.9600945011888</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>829.63542407173816</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>759.26891209674284</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>744.80368987636996</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>770.17302114195684</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>444.87390981478114</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1056.5606488429326</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>547.09609018879996</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>436.76752806676581</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>795.74921194859792</v>
@@ -743,55 +629,55 @@
         <v>341.10286656417946</v>
       </c>
       <c r="AA3">
-        <v>855.5239078258146</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>507.4347581591058</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>405.25561821916807</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>659.23790269576659</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>339.83064787253437</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>631.91863338142912</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>604.06653561821895</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>583.20117898637341</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>671.59259722220031</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>928.3480228760277</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>460.48233612140865</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>546.22408645265307</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>853.00131378641288</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>359.55529361567272</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>797.14943639943965</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>474.72338231493057</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>401.54701224901493</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>663.27127050122851</v>

--- a/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>944.08078117248954</v>
+        <v>360.51384934303042</v>
       </c>
       <c r="C2">
-        <v>784.68221713555477</v>
+        <v>813.75693527432168</v>
       </c>
       <c r="D2">
-        <v>522.85987347868513</v>
+        <v>367.55330419549136</v>
       </c>
       <c r="E2">
-        <v>670.9255753149672</v>
+        <v>588.96701264845149</v>
       </c>
       <c r="F2">
         <v>719.69678399746556</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1256.6242850946503</v>
+        <v>444.87390981478114</v>
       </c>
       <c r="C3">
-        <v>576.8700669257363</v>
+        <v>436.76752806676581</v>
       </c>
       <c r="D3">
-        <v>528.38985073785295</v>
+        <v>359.55529361567272</v>
       </c>
       <c r="E3">
-        <v>1496.1471187305449</v>
+        <v>379.12576171727716</v>
       </c>
       <c r="F3">
         <v>357.75259016904647</v>

--- a/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>944.08078117248954</v>
+        <v>826.86838530406374</v>
       </c>
       <c r="C2">
-        <v>784.68221713555477</v>
+        <v>439.3877776586998</v>
       </c>
       <c r="D2">
-        <v>522.85987347868513</v>
+        <v>939.63583694062663</v>
       </c>
       <c r="E2">
-        <v>670.9255753149672</v>
+        <v>417.24887536970186</v>
       </c>
       <c r="F2">
         <v>719.69678399746556</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1256.6242850946503</v>
+        <v>770.17302114195684</v>
       </c>
       <c r="C3">
-        <v>576.8700669257363</v>
+        <v>444.87390981478114</v>
       </c>
       <c r="D3">
-        <v>528.38985073785295</v>
+        <v>853.00131378641288</v>
       </c>
       <c r="E3">
-        <v>1496.1471187305449</v>
+        <v>359.55529361567272</v>
       </c>
       <c r="F3">
         <v>357.75259016904647</v>

--- a/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_force at subject max ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1006.8410571318944</v>
+      </c>
+      <c r="C2">
+        <v>784.68220717664246</v>
+      </c>
+      <c r="D2">
+        <v>1049.574139052701</v>
+      </c>
+      <c r="E2">
+        <v>1405.955078760413</v>
+      </c>
+      <c r="F2">
+        <v>719.69677792151379</v>
+      </c>
+      <c r="G2">
+        <v>738.2237421458741</v>
+      </c>
+      <c r="H2">
+        <v>1060.8049592384793</v>
+      </c>
+      <c r="I2">
+        <v>736.67565494658493</v>
+      </c>
+      <c r="J2">
+        <v>1130.9869692622849</v>
+      </c>
+      <c r="K2">
+        <v>1087.8628590510082</v>
+      </c>
+      <c r="L2">
+        <v>812.8593573313043</v>
+      </c>
+      <c r="M2">
+        <v>729.18643933657677</v>
+      </c>
+      <c r="N2">
         <v>826.86838530406374</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>439.3877776586998</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>946.63923647977197</v>
+      </c>
+      <c r="Q2">
+        <v>464.62507585767349</v>
+      </c>
+      <c r="R2">
+        <v>813.75693527432168</v>
+      </c>
+      <c r="S2">
+        <v>1326.7332603242437</v>
+      </c>
+      <c r="T2">
+        <v>707.12147066572982</v>
+      </c>
+      <c r="U2">
+        <v>536.64589914810222</v>
+      </c>
+      <c r="V2">
+        <v>1056.6784475760116</v>
+      </c>
+      <c r="W2">
+        <v>967.72086660413754</v>
+      </c>
+      <c r="X2">
+        <v>691.05825109996204</v>
+      </c>
+      <c r="Y2">
+        <v>675.87984356188997</v>
+      </c>
+      <c r="Z2">
+        <v>273.31936476055881</v>
+      </c>
+      <c r="AA2">
+        <v>1154.8218075964905</v>
+      </c>
+      <c r="AB2">
+        <v>469.85281876811092</v>
+      </c>
+      <c r="AC2">
+        <v>898.89520833236213</v>
+      </c>
+      <c r="AD2">
+        <v>995.570598066206</v>
+      </c>
+      <c r="AE2">
+        <v>446.4772047224057</v>
+      </c>
+      <c r="AF2">
+        <v>838.91207537448088</v>
+      </c>
+      <c r="AG2">
+        <v>586.90491369339634</v>
+      </c>
+      <c r="AH2">
+        <v>643.88710714464037</v>
+      </c>
+      <c r="AI2">
+        <v>954.63960246691613</v>
+      </c>
+      <c r="AJ2">
+        <v>1294.654338532926</v>
+      </c>
+      <c r="AK2">
+        <v>665.06454890718794</v>
+      </c>
+      <c r="AL2">
+        <v>655.43778052445293</v>
+      </c>
+      <c r="AM2">
         <v>939.63583694062663</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>417.24887536970186</v>
       </c>
-      <c r="F2">
-        <v>719.69678399746556</v>
-      </c>
-      <c r="G2">
-        <v>738.22374649734741</v>
-      </c>
-      <c r="H2">
-        <v>961.6635205386001</v>
-      </c>
-      <c r="I2">
-        <v>577.95798485716602</v>
-      </c>
-      <c r="J2">
-        <v>1075.7189378472451</v>
-      </c>
-      <c r="K2">
-        <v>708.33924739771635</v>
-      </c>
-      <c r="L2">
-        <v>482.06486461737541</v>
-      </c>
-      <c r="M2">
-        <v>729.1864426670918</v>
-      </c>
-      <c r="N2">
-        <v>636.12722890189036</v>
-      </c>
-      <c r="O2">
-        <v>360.51385009612665</v>
-      </c>
-      <c r="P2">
-        <v>946.63924628826442</v>
-      </c>
-      <c r="Q2">
-        <v>464.62507754132713</v>
-      </c>
-      <c r="R2">
-        <v>813.75693769858901</v>
-      </c>
-      <c r="S2">
-        <v>1095.8777466055574</v>
-      </c>
-      <c r="T2">
-        <v>707.12147198043078</v>
-      </c>
-      <c r="U2">
-        <v>430.61423198169456</v>
-      </c>
-      <c r="V2">
-        <v>706.57216621690111</v>
-      </c>
-      <c r="W2">
-        <v>535.38847158986619</v>
-      </c>
-      <c r="X2">
-        <v>392.42202176193587</v>
-      </c>
-      <c r="Y2">
-        <v>633.30430867393204</v>
-      </c>
-      <c r="Z2">
-        <v>273.31936521038307</v>
-      </c>
-      <c r="AA2">
-        <v>1078.9006061100904</v>
-      </c>
-      <c r="AB2">
-        <v>469.85282406640471</v>
-      </c>
-      <c r="AC2">
-        <v>406.53074170014503</v>
-      </c>
-      <c r="AD2">
-        <v>366.97656175460298</v>
-      </c>
-      <c r="AE2">
-        <v>446.47720789706864</v>
-      </c>
-      <c r="AF2">
-        <v>838.91208182196033</v>
-      </c>
-      <c r="AG2">
-        <v>524.33380175173477</v>
-      </c>
-      <c r="AH2">
-        <v>502.51357648586674</v>
-      </c>
-      <c r="AI2">
-        <v>908.82020067157839</v>
-      </c>
-      <c r="AJ2">
-        <v>931.7610078272628</v>
-      </c>
-      <c r="AK2">
-        <v>409.33315563649944</v>
-      </c>
-      <c r="AL2">
-        <v>655.43778191607646</v>
-      </c>
-      <c r="AM2">
-        <v>776.58446312997842</v>
-      </c>
-      <c r="AN2">
-        <v>367.55330479534206</v>
-      </c>
       <c r="AO2">
-        <v>690.86988419443162</v>
+        <v>690.86988063623187</v>
       </c>
       <c r="AP2">
-        <v>454.03016517499162</v>
+        <v>454.03016358632271</v>
       </c>
       <c r="AQ2">
-        <v>588.96701374254746</v>
+        <v>588.96701264845149</v>
       </c>
       <c r="AR2">
-        <v>692.78855250233983</v>
+        <v>883.15816135649345</v>
       </c>
       <c r="AS2">
-        <v>625.01665975296919</v>
+        <v>625.01665790182426</v>
       </c>
       <c r="AT2">
-        <v>313.57459394212918</v>
+        <v>340.11463437993262</v>
       </c>
       <c r="AU2">
-        <v>687.51559594226217</v>
+        <v>1043.8642131179631</v>
       </c>
       <c r="AV2">
-        <v>386.54013658436924</v>
+        <v>687.4170554292167</v>
       </c>
       <c r="AW2">
-        <v>305.69250326969114</v>
+        <v>438.15613073570489</v>
       </c>
       <c r="AX2">
-        <v>450.92865311453198</v>
+        <v>472.71128012897657</v>
       </c>
       <c r="AY2">
-        <v>291.1591452933356</v>
+        <v>291.15914473414227</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1256.6242649662242</v>
+      </c>
+      <c r="C3">
+        <v>899.75102031170354</v>
+      </c>
+      <c r="D3">
+        <v>528.38984743350204</v>
+      </c>
+      <c r="E3">
+        <v>1496.1471085605228</v>
+      </c>
+      <c r="F3">
+        <v>456.28535676028179</v>
+      </c>
+      <c r="G3">
+        <v>1050.9346900764967</v>
+      </c>
+      <c r="H3">
+        <v>1072.7813701737575</v>
+      </c>
+      <c r="I3">
+        <v>589.64974802873496</v>
+      </c>
+      <c r="J3">
+        <v>1006.9600945011888</v>
+      </c>
+      <c r="K3">
+        <v>829.63542407173816</v>
+      </c>
+      <c r="L3">
+        <v>759.26891209674284</v>
+      </c>
+      <c r="M3">
+        <v>1036.2362742366404</v>
+      </c>
+      <c r="N3">
         <v>770.17302114195684</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>444.87390981478114</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1273.6451136165972</v>
+      </c>
+      <c r="Q3">
+        <v>585.28164100408901</v>
+      </c>
+      <c r="R3">
+        <v>575.94370201088248</v>
+      </c>
+      <c r="S3">
+        <v>795.74921194859792</v>
+      </c>
+      <c r="T3">
+        <v>738.77010083756795</v>
+      </c>
+      <c r="U3">
+        <v>545.17480799150974</v>
+      </c>
+      <c r="V3">
+        <v>756.4346663678815</v>
+      </c>
+      <c r="W3">
+        <v>542.46236964015293</v>
+      </c>
+      <c r="X3">
+        <v>517.10275304978802</v>
+      </c>
+      <c r="Y3">
+        <v>584.78716744921235</v>
+      </c>
+      <c r="Z3">
+        <v>346.35109640909099</v>
+      </c>
+      <c r="AA3">
+        <v>855.5239078258146</v>
+      </c>
+      <c r="AB3">
+        <v>849.67283441987047</v>
+      </c>
+      <c r="AC3">
+        <v>405.25561821916807</v>
+      </c>
+      <c r="AD3">
+        <v>659.23790269576659</v>
+      </c>
+      <c r="AE3">
+        <v>451.95097580089305</v>
+      </c>
+      <c r="AF3">
+        <v>825.88891475140224</v>
+      </c>
+      <c r="AG3">
+        <v>604.06653561821895</v>
+      </c>
+      <c r="AH3">
+        <v>492.05529538513809</v>
+      </c>
+      <c r="AI3">
+        <v>671.59259722220031</v>
+      </c>
+      <c r="AJ3">
+        <v>928.3480228760277</v>
+      </c>
+      <c r="AK3">
+        <v>460.48233612140865</v>
+      </c>
+      <c r="AL3">
+        <v>793.80190167071714</v>
+      </c>
+      <c r="AM3">
         <v>853.00131378641288</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>359.55529361567272</v>
       </c>
-      <c r="F3">
-        <v>357.75259016904647</v>
-      </c>
-      <c r="G3">
-        <v>872.0322725272091</v>
-      </c>
-      <c r="H3">
-        <v>1072.7813803979839</v>
-      </c>
-      <c r="I3">
-        <v>589.6497493339499</v>
-      </c>
-      <c r="J3">
-        <v>1006.9601052355647</v>
-      </c>
-      <c r="K3">
-        <v>829.63542796963793</v>
-      </c>
-      <c r="L3">
-        <v>759.26891762922571</v>
-      </c>
-      <c r="M3">
-        <v>744.77181182541744</v>
-      </c>
-      <c r="N3">
-        <v>770.17302558382835</v>
-      </c>
-      <c r="O3">
-        <v>444.87391105662761</v>
-      </c>
-      <c r="P3">
-        <v>1056.56065846467</v>
-      </c>
-      <c r="Q3">
-        <v>547.09609263446282</v>
-      </c>
-      <c r="R3">
-        <v>436.76752914254621</v>
-      </c>
-      <c r="S3">
-        <v>795.74921583659318</v>
-      </c>
-      <c r="T3">
-        <v>697.7254282565068</v>
-      </c>
-      <c r="U3">
-        <v>545.17480982584766</v>
-      </c>
-      <c r="V3">
-        <v>756.4346694811212</v>
-      </c>
-      <c r="W3">
-        <v>542.46237332559338</v>
-      </c>
-      <c r="X3">
-        <v>517.10275689612502</v>
-      </c>
-      <c r="Y3">
-        <v>584.78716959042004</v>
-      </c>
-      <c r="Z3">
-        <v>341.10286714437922</v>
-      </c>
-      <c r="AA3">
-        <v>855.5239194223019</v>
-      </c>
-      <c r="AB3">
-        <v>507.43476326143224</v>
-      </c>
-      <c r="AC3">
-        <v>405.25561980401295</v>
-      </c>
-      <c r="AD3">
-        <v>659.23790773121323</v>
-      </c>
-      <c r="AE3">
-        <v>339.83064985712821</v>
-      </c>
-      <c r="AF3">
-        <v>631.91863828858504</v>
-      </c>
-      <c r="AG3">
-        <v>604.06654137413796</v>
-      </c>
-      <c r="AH3">
-        <v>492.05529630540514</v>
-      </c>
-      <c r="AI3">
-        <v>671.59260301475547</v>
-      </c>
-      <c r="AJ3">
-        <v>928.3480274147438</v>
-      </c>
-      <c r="AK3">
-        <v>460.48233875337934</v>
-      </c>
-      <c r="AL3">
-        <v>546.22408830881795</v>
-      </c>
-      <c r="AM3">
-        <v>853.00131888929764</v>
-      </c>
-      <c r="AN3">
-        <v>359.55529454934361</v>
-      </c>
       <c r="AO3">
-        <v>797.14944154860598</v>
+        <v>915.82839560530681</v>
       </c>
       <c r="AP3">
-        <v>474.72338392728221</v>
+        <v>499.10098553527104</v>
       </c>
       <c r="AQ3">
-        <v>379.12576273902852</v>
+        <v>476.2203269271044</v>
       </c>
       <c r="AR3">
-        <v>663.27127275463147</v>
+        <v>663.27127050122851</v>
       </c>
       <c r="AS3">
-        <v>529.74789817106182</v>
+        <v>563.4199802186298</v>
       </c>
       <c r="AT3">
-        <v>311.76358250451312</v>
+        <v>311.76358181466071</v>
       </c>
       <c r="AU3">
-        <v>695.90115093073621</v>
+        <v>695.90114926389253</v>
       </c>
       <c r="AV3">
-        <v>383.60677945013231</v>
+        <v>383.60677766350426</v>
       </c>
       <c r="AW3">
-        <v>354.21959915837982</v>
+        <v>354.2195978265309</v>
       </c>
       <c r="AX3">
-        <v>598.85236068167353</v>
+        <v>598.85235890851754</v>
       </c>
       <c r="AY3">
-        <v>399.2711561894277</v>
+        <v>412.00453744316945</v>
       </c>
     </row>
   </sheetData>
